--- a/Design/Usecase Diagram/Review/Review Log v1.0.xlsx
+++ b/Design/Usecase Diagram/Review/Review Log v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="AnhDTH" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>No.</t>
   </si>
@@ -47,15 +47,7 @@
     <t>Nguyễn Xuân Sơn</t>
   </si>
   <si>
-    <t>1. Case view hospital / clinic information ở Guest không có Extend, nhưng ở User lại có Extend. Hãy thống nhất trường hợp này trong cả 2 Diagrams.
-2. Bổ sung thêm Case Make Appointment Online cho User General Use Case.</t>
-  </si>
-  <si>
     <t>Assigned</t>
-  </si>
-  <si>
-    <t>1. User cũng có thể đặt Appointment Online. Vẽ thêm một Association từ User vào Make Appoint Online hoặc cho User kế thừa Guest.
-2. Hospital User chưa có case View List of Appointments. Có thể Association Case trực tiếp vào Hospital User hoặc cho kế thừa Case Manage Hospita / Clinic Information.</t>
   </si>
   <si>
     <t>In Charged Person</t>
@@ -66,9 +58,6 @@
   </si>
   <si>
     <t>Administrator General Usercase v1.1</t>
-  </si>
-  <si>
-    <t>Bỏ những Case liên quan đến Insert và Update Doctor.</t>
   </si>
   <si>
     <t>&lt;AD&gt; View Feedback
@@ -82,20 +71,75 @@
     <t>Finished</t>
   </si>
   <si>
-    <t>1.Sửa lỗi chính tả, diễn đạt và định dạng.
-2. Thêm Facility vào phần thêm mới bệnh viện cùng với Service.
-3. Sửa lại Altenative scenario
-4. Thêm Business rules.</t>
-  </si>
-  <si>
-    <t>Chưa có đặc tả của những Case này</t>
-  </si>
-  <si>
     <t>&lt;GU&gt; Login</t>
   </si>
   <si>
     <t>1. Sửa lỗi chính tả, diễn đạt và định dạng.
-2. Sửa lại Post condition</t>
+2. Sửa lại Post condition
+3. Không có Username trong Login mà chỉ có Email</t>
+  </si>
+  <si>
+    <t>&lt;HU&gt;&lt;AD&gt; Upload Photo</t>
+  </si>
+  <si>
+    <t>1. Sửa lỗi chính tả, diễn đạt và định dạng</t>
+  </si>
+  <si>
+    <t>1. Sửa lỗi chính tả, diễn đạt và định dạng
+2. Sửa Business rules</t>
+  </si>
+  <si>
+    <t>1.Sửa lỗi chính tả, diễn đạt và định dạng.
+2. Thêm Facility vào phần thêm mới bệnh viện cùng với Service.
+3. Sửa lại Altenative scenario
+4. Thêm Business rules</t>
+  </si>
+  <si>
+    <t>1. Case view hospital / clinic information ở Guest không có Extend, nhưng ở User lại có Extend. Hãy thống nhất trường hợp này trong cả 2 Diagrams.
+2. Bổ sung thêm Case Cancel Appointment Online cho Guest General Use Case.
+3. Bổ sung thêm Case Make Appointment và Cancel Appointment Online cho User General Use Case.</t>
+  </si>
+  <si>
+    <t>1. User cũng có thể đặt Appointment Online. Vẽ thêm một Association từ User vào Make Appoint Online hoặc cho User kế thừa Guest.
+2. Bổ sung thêm Case Cancel Appointment Online
+3. Hospital User chưa có case View List of Appointments. Có thể Association Case trực tiếp vào Hospital User hoặc cho kế thừa Case Manage Hospita / Clinic Information.</t>
+  </si>
+  <si>
+    <t>&lt;AD&gt; Activate User</t>
+  </si>
+  <si>
+    <t>&lt;AD&gt; De-ativate User</t>
+  </si>
+  <si>
+    <t>1. Chưa có đặc tả của những Case này</t>
+  </si>
+  <si>
+    <t>1. Bỏ những Case liên quan đến Insert và Update Doctor.</t>
+  </si>
+  <si>
+    <t>1. Đổi tên thành &lt;HU&gt; Search list of doctors
+2. Chỉ dành cho role Hospital user</t>
+  </si>
+  <si>
+    <t>1. Bỏ case Update trong diagram
+2. Chỉ dành cho role Hospital user
+3.  Sửa lỗi chính tả, diễn đạt và định dạng</t>
+  </si>
+  <si>
+    <t>&lt;HU&gt; Search doctor</t>
+  </si>
+  <si>
+    <t>&lt;HU&gt; Add new doctor</t>
+  </si>
+  <si>
+    <t>&lt;HU&gt; Update doctor information</t>
+  </si>
+  <si>
+    <t>1. Không hiểu phần đặc tả của Trigger, hãy Update lại.
+2. Cân nhắc về những Field read only, nếu chỉ cho cập nhật thông tin giờ làm việc của bác sỹ thì có chính đáng hay không.
+3. Nếu có thay đổi những Field read only thì phải cập nhật lại Exception case tương ứng với với use case Add Doctor
+4. Alternative screnario có 2 dòng trùng lắp
+5.  Sửa lỗi chính tả, diễn đạt và định dạng</t>
   </si>
 </sst>
 </file>
@@ -292,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -310,9 +354,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -348,16 +389,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -369,8 +404,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,30 +725,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -717,2074 +764,2170 @@
         <v>7</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>41798</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="23">
+        <v>41798</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="C4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="23">
+        <v>41798</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="23">
+        <v>41798</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="23">
+        <v>41798</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="23">
+        <v>41798</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="23">
+        <v>41798</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="23">
+        <v>41798</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="23">
+        <v>41798</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="23">
+        <v>41798</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="19">
+      <c r="B9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="23">
         <v>41798</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="23">
+        <v>41798</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="23">
+        <v>41798</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="23">
+        <v>41798</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="23">
+        <v>41798</v>
+      </c>
+      <c r="E11" s="23">
+        <v>41798</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="23">
+        <v>41798</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20" t="s">
+      <c r="B12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="23">
+        <v>41798</v>
+      </c>
+      <c r="E12" s="23">
+        <v>41798</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="23">
+        <v>41798</v>
+      </c>
+      <c r="H12" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="19">
-        <v>41798</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="19">
-        <v>41798</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="19">
-        <v>41798</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="19">
-        <v>41798</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="19">
-        <v>41798</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="20"/>
-    </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="20"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="20"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="20"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="20"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="20"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="20"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="20"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="20"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="20"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="20"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="20"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="20"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="20"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="20"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="20"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="20"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="20"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="20"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="20"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="20"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="20"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="20"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="20"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="20"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="20"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="20"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="20"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="20"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="20"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="20"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="20"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="18"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="20"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="20"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="20"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="20"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="20"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="18"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="20"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="18"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="20"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="18"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="20"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="20"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="18"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="20"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="18"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="20"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="18"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="20"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="18"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="20"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="18"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="20"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="18"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="20"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="18"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="20"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="20"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="18"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="20"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="18"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="20"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="18"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="20"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="18"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="20"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="18"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="20"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="18"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="20"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="18"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="20"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="18"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="20"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="18"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="20"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="18"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="20"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="18"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="20"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="18"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="20"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="18"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="20"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="18"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="20"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="18"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="20"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="18"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="20"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="18"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="20"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="18"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="20"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="18"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="20"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="18"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="20"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="18"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="20"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="18"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="20"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="18"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="20"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="18"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="20"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="18"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="20"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="18"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="20"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="18"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="20"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="18"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="16"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="20"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="18"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="16"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="20"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="18"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="16"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="20"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="18"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="16"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="20"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="18"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="16"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="20"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="18"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="16"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="20"/>
+      <c r="A93" s="15"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="18"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="16"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="20"/>
+      <c r="A94" s="15"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="18"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="16"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="20"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="18"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="16"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="20"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="18"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="16"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="20"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="18"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="16"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="20"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="18"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="20"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="18"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="16"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="20"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="18"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="16"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="20"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="18"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="16"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="20"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="18"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="16"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="20"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="18"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="20"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="18"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="16"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="20"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="18"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="16"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="20"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="18"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="16"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="20"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="18"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="16"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="20"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="18"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="16"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="20"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="18"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="16"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="20"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="18"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="16"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="20"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="18"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="16"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="20"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="18"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="16"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="20"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="18"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="16"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="20"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="18"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="16"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="20"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="18"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="16"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="20"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="18"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="16"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="20"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="18"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="16"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="20"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="18"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="16"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="20"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="18"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="16"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="23"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="20"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="18"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="16"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="23"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="20"/>
+      <c r="A121" s="15"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="18"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="16"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="23"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="20"/>
+      <c r="A122" s="15"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="18"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="16"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="23"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="20"/>
+      <c r="A123" s="15"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="18"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="16"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="23"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="20"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="18"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="16"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="20"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="18"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="16"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="20"/>
+      <c r="A126" s="15"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="18"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="16"/>
-      <c r="B127" s="23"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="20"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="18"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="16"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="23"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="20"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="18"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="16"/>
-      <c r="B129" s="23"/>
-      <c r="C129" s="23"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="20"/>
+      <c r="A129" s="15"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="18"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="16"/>
-      <c r="B130" s="23"/>
-      <c r="C130" s="23"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="20"/>
+      <c r="A130" s="15"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="18"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="16"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="20"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="18"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="16"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="20"/>
+      <c r="A132" s="15"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="18"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="16"/>
-      <c r="B133" s="23"/>
-      <c r="C133" s="23"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="20"/>
+      <c r="A133" s="15"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="18"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="16"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="20"/>
+      <c r="A134" s="15"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="18"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="16"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="20"/>
+      <c r="A135" s="15"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="18"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="16"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="23"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12"/>
-      <c r="G136" s="12"/>
-      <c r="H136" s="20"/>
+      <c r="A136" s="15"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="18"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="16"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="23"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="12"/>
-      <c r="H137" s="20"/>
+      <c r="A137" s="15"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="18"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="16"/>
-      <c r="B138" s="23"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="20"/>
+      <c r="A138" s="15"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="18"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="16"/>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="12"/>
-      <c r="H139" s="20"/>
+      <c r="A139" s="15"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="18"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="16"/>
-      <c r="B140" s="23"/>
-      <c r="C140" s="23"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="20"/>
+      <c r="A140" s="15"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="18"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="16"/>
-      <c r="B141" s="23"/>
-      <c r="C141" s="23"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
-      <c r="H141" s="20"/>
+      <c r="A141" s="15"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="18"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="16"/>
-      <c r="B142" s="23"/>
-      <c r="C142" s="23"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="12"/>
-      <c r="H142" s="20"/>
+      <c r="A142" s="15"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="18"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="16"/>
-      <c r="B143" s="23"/>
-      <c r="C143" s="23"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="12"/>
-      <c r="H143" s="20"/>
+      <c r="A143" s="15"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="18"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="16"/>
-      <c r="B144" s="23"/>
-      <c r="C144" s="23"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
-      <c r="G144" s="12"/>
-      <c r="H144" s="20"/>
+      <c r="A144" s="15"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="18"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="16"/>
-      <c r="B145" s="23"/>
-      <c r="C145" s="23"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="12"/>
-      <c r="H145" s="20"/>
+      <c r="A145" s="15"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="18"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="16"/>
-      <c r="B146" s="23"/>
-      <c r="C146" s="23"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="20"/>
+      <c r="A146" s="15"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="18"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="16"/>
-      <c r="B147" s="23"/>
-      <c r="C147" s="23"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
-      <c r="H147" s="20"/>
+      <c r="A147" s="15"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="18"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="16"/>
-      <c r="B148" s="23"/>
-      <c r="C148" s="23"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="20"/>
+      <c r="A148" s="15"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="18"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="16"/>
-      <c r="B149" s="23"/>
-      <c r="C149" s="23"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
-      <c r="H149" s="20"/>
+      <c r="A149" s="15"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="18"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="16"/>
-      <c r="B150" s="23"/>
-      <c r="C150" s="23"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="20"/>
+      <c r="A150" s="15"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="18"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="16"/>
-      <c r="B151" s="23"/>
-      <c r="C151" s="23"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
-      <c r="H151" s="20"/>
+      <c r="A151" s="15"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="18"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="16"/>
-      <c r="B152" s="23"/>
-      <c r="C152" s="23"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="20"/>
+      <c r="A152" s="15"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="18"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="16"/>
-      <c r="B153" s="23"/>
-      <c r="C153" s="23"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="20"/>
+      <c r="A153" s="15"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="18"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="16"/>
-      <c r="B154" s="23"/>
-      <c r="C154" s="23"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
-      <c r="H154" s="20"/>
+      <c r="A154" s="15"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="18"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="16"/>
-      <c r="B155" s="23"/>
-      <c r="C155" s="23"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
-      <c r="H155" s="20"/>
+      <c r="A155" s="15"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="18"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="16"/>
-      <c r="B156" s="23"/>
-      <c r="C156" s="23"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="12"/>
-      <c r="H156" s="20"/>
+      <c r="A156" s="15"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="18"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="16"/>
-      <c r="B157" s="23"/>
-      <c r="C157" s="23"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="20"/>
+      <c r="A157" s="15"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="18"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="16"/>
-      <c r="B158" s="23"/>
-      <c r="C158" s="23"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="20"/>
+      <c r="A158" s="15"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="18"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="16"/>
-      <c r="B159" s="23"/>
-      <c r="C159" s="23"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="12"/>
-      <c r="H159" s="20"/>
+      <c r="A159" s="15"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="18"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="16"/>
-      <c r="B160" s="23"/>
-      <c r="C160" s="23"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="12"/>
-      <c r="H160" s="20"/>
+      <c r="A160" s="15"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="18"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="16"/>
-      <c r="B161" s="23"/>
-      <c r="C161" s="23"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="20"/>
+      <c r="A161" s="15"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="18"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="16"/>
-      <c r="B162" s="23"/>
-      <c r="C162" s="23"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="12"/>
-      <c r="H162" s="20"/>
+      <c r="A162" s="15"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="18"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="16"/>
-      <c r="B163" s="23"/>
-      <c r="C163" s="23"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="12"/>
-      <c r="H163" s="20"/>
+      <c r="A163" s="15"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="18"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="16"/>
-      <c r="B164" s="23"/>
-      <c r="C164" s="23"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="12"/>
-      <c r="G164" s="12"/>
-      <c r="H164" s="20"/>
+      <c r="A164" s="15"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="18"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="16"/>
-      <c r="B165" s="23"/>
-      <c r="C165" s="23"/>
-      <c r="D165" s="12"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="12"/>
-      <c r="G165" s="12"/>
-      <c r="H165" s="20"/>
+      <c r="A165" s="15"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="18"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="16"/>
-      <c r="B166" s="23"/>
-      <c r="C166" s="23"/>
-      <c r="D166" s="12"/>
-      <c r="E166" s="12"/>
-      <c r="F166" s="12"/>
-      <c r="G166" s="12"/>
-      <c r="H166" s="20"/>
+      <c r="A166" s="15"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="18"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="16"/>
-      <c r="B167" s="23"/>
-      <c r="C167" s="23"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="12"/>
-      <c r="G167" s="12"/>
-      <c r="H167" s="20"/>
+      <c r="A167" s="15"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="18"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="16"/>
-      <c r="B168" s="23"/>
-      <c r="C168" s="23"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12"/>
-      <c r="G168" s="12"/>
-      <c r="H168" s="20"/>
+      <c r="A168" s="15"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="18"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="16"/>
-      <c r="B169" s="23"/>
-      <c r="C169" s="23"/>
-      <c r="D169" s="12"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="12"/>
-      <c r="G169" s="12"/>
-      <c r="H169" s="20"/>
+      <c r="A169" s="15"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="18"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="16"/>
-      <c r="B170" s="23"/>
-      <c r="C170" s="23"/>
-      <c r="D170" s="12"/>
-      <c r="E170" s="12"/>
-      <c r="F170" s="12"/>
-      <c r="G170" s="12"/>
-      <c r="H170" s="20"/>
+      <c r="A170" s="15"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="18"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="16"/>
-      <c r="B171" s="23"/>
-      <c r="C171" s="23"/>
-      <c r="D171" s="12"/>
-      <c r="E171" s="12"/>
-      <c r="F171" s="12"/>
-      <c r="G171" s="12"/>
-      <c r="H171" s="20"/>
+      <c r="A171" s="15"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="18"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="16"/>
-      <c r="B172" s="23"/>
-      <c r="C172" s="23"/>
-      <c r="D172" s="12"/>
-      <c r="E172" s="12"/>
-      <c r="F172" s="12"/>
-      <c r="G172" s="12"/>
-      <c r="H172" s="20"/>
+      <c r="A172" s="15"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="18"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="16"/>
-      <c r="B173" s="23"/>
-      <c r="C173" s="23"/>
-      <c r="D173" s="12"/>
-      <c r="E173" s="12"/>
-      <c r="F173" s="12"/>
-      <c r="G173" s="12"/>
-      <c r="H173" s="20"/>
+      <c r="A173" s="15"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="18"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="16"/>
-      <c r="B174" s="23"/>
-      <c r="C174" s="23"/>
-      <c r="D174" s="12"/>
-      <c r="E174" s="12"/>
-      <c r="F174" s="12"/>
-      <c r="G174" s="12"/>
-      <c r="H174" s="20"/>
+      <c r="A174" s="15"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="18"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="16"/>
-      <c r="B175" s="23"/>
-      <c r="C175" s="23"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="12"/>
-      <c r="F175" s="12"/>
-      <c r="G175" s="12"/>
-      <c r="H175" s="20"/>
+      <c r="A175" s="15"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="18"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="16"/>
-      <c r="B176" s="23"/>
-      <c r="C176" s="23"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="12"/>
-      <c r="F176" s="12"/>
-      <c r="G176" s="12"/>
-      <c r="H176" s="20"/>
+      <c r="A176" s="15"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
+      <c r="H176" s="18"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="16"/>
-      <c r="B177" s="23"/>
-      <c r="C177" s="23"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="12"/>
-      <c r="F177" s="12"/>
-      <c r="G177" s="12"/>
-      <c r="H177" s="20"/>
+      <c r="A177" s="15"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="18"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="16"/>
-      <c r="B178" s="23"/>
-      <c r="C178" s="23"/>
-      <c r="D178" s="12"/>
-      <c r="E178" s="12"/>
-      <c r="F178" s="12"/>
-      <c r="G178" s="12"/>
-      <c r="H178" s="20"/>
+      <c r="A178" s="15"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="18"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="16"/>
-      <c r="B179" s="23"/>
-      <c r="C179" s="23"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="20"/>
+      <c r="A179" s="15"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="18"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="16"/>
-      <c r="B180" s="23"/>
-      <c r="C180" s="23"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="12"/>
-      <c r="F180" s="12"/>
-      <c r="G180" s="12"/>
-      <c r="H180" s="20"/>
+      <c r="A180" s="15"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="18"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="16"/>
-      <c r="B181" s="23"/>
-      <c r="C181" s="23"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="12"/>
-      <c r="F181" s="12"/>
-      <c r="G181" s="12"/>
-      <c r="H181" s="20"/>
+      <c r="A181" s="15"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="18"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="16"/>
-      <c r="B182" s="23"/>
-      <c r="C182" s="23"/>
-      <c r="D182" s="12"/>
-      <c r="E182" s="12"/>
-      <c r="F182" s="12"/>
-      <c r="G182" s="12"/>
-      <c r="H182" s="20"/>
+      <c r="A182" s="15"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="18"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="16"/>
-      <c r="B183" s="23"/>
-      <c r="C183" s="23"/>
-      <c r="D183" s="12"/>
-      <c r="E183" s="12"/>
-      <c r="F183" s="12"/>
-      <c r="G183" s="12"/>
-      <c r="H183" s="20"/>
+      <c r="A183" s="15"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="18"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="16"/>
-      <c r="B184" s="23"/>
-      <c r="C184" s="23"/>
-      <c r="D184" s="12"/>
-      <c r="E184" s="12"/>
-      <c r="F184" s="12"/>
-      <c r="G184" s="12"/>
-      <c r="H184" s="20"/>
+      <c r="A184" s="15"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="18"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="16"/>
-      <c r="B185" s="23"/>
-      <c r="C185" s="23"/>
-      <c r="D185" s="12"/>
-      <c r="E185" s="12"/>
-      <c r="F185" s="12"/>
-      <c r="G185" s="12"/>
-      <c r="H185" s="20"/>
+      <c r="A185" s="15"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="18"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="16"/>
-      <c r="B186" s="23"/>
-      <c r="C186" s="23"/>
-      <c r="D186" s="12"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="12"/>
-      <c r="G186" s="12"/>
-      <c r="H186" s="20"/>
+      <c r="A186" s="15"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="18"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="16"/>
-      <c r="B187" s="23"/>
-      <c r="C187" s="23"/>
-      <c r="D187" s="12"/>
-      <c r="E187" s="12"/>
-      <c r="F187" s="12"/>
-      <c r="G187" s="12"/>
-      <c r="H187" s="20"/>
+      <c r="A187" s="15"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="18"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="16"/>
-      <c r="B188" s="23"/>
-      <c r="C188" s="23"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="12"/>
-      <c r="G188" s="12"/>
-      <c r="H188" s="20"/>
+      <c r="A188" s="15"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="18"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="16"/>
-      <c r="B189" s="23"/>
-      <c r="C189" s="23"/>
-      <c r="D189" s="12"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="12"/>
-      <c r="G189" s="12"/>
-      <c r="H189" s="20"/>
+      <c r="A189" s="15"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="18"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="16"/>
-      <c r="B190" s="23"/>
-      <c r="C190" s="23"/>
-      <c r="D190" s="12"/>
-      <c r="E190" s="12"/>
-      <c r="F190" s="12"/>
-      <c r="G190" s="12"/>
-      <c r="H190" s="20"/>
+      <c r="A190" s="15"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="11"/>
+      <c r="H190" s="18"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="16"/>
-      <c r="B191" s="23"/>
-      <c r="C191" s="23"/>
-      <c r="D191" s="12"/>
-      <c r="E191" s="12"/>
-      <c r="F191" s="12"/>
-      <c r="G191" s="12"/>
-      <c r="H191" s="20"/>
+      <c r="A191" s="15"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="11"/>
+      <c r="H191" s="18"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="16"/>
-      <c r="B192" s="23"/>
-      <c r="C192" s="23"/>
-      <c r="D192" s="12"/>
-      <c r="E192" s="12"/>
-      <c r="F192" s="12"/>
-      <c r="G192" s="12"/>
-      <c r="H192" s="20"/>
+      <c r="A192" s="15"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
+      <c r="G192" s="11"/>
+      <c r="H192" s="18"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="16"/>
-      <c r="B193" s="23"/>
-      <c r="C193" s="23"/>
-      <c r="D193" s="12"/>
-      <c r="E193" s="12"/>
-      <c r="F193" s="12"/>
-      <c r="G193" s="12"/>
-      <c r="H193" s="20"/>
+      <c r="A193" s="15"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="18"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="16"/>
-      <c r="B194" s="23"/>
-      <c r="C194" s="23"/>
-      <c r="D194" s="12"/>
-      <c r="E194" s="12"/>
-      <c r="F194" s="12"/>
-      <c r="G194" s="12"/>
-      <c r="H194" s="20"/>
+      <c r="A194" s="15"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="18"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="16"/>
-      <c r="B195" s="23"/>
-      <c r="C195" s="23"/>
-      <c r="D195" s="12"/>
-      <c r="E195" s="12"/>
-      <c r="F195" s="12"/>
-      <c r="G195" s="12"/>
-      <c r="H195" s="20"/>
+      <c r="A195" s="15"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11"/>
+      <c r="G195" s="11"/>
+      <c r="H195" s="18"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="16"/>
-      <c r="B196" s="23"/>
-      <c r="C196" s="23"/>
-      <c r="D196" s="12"/>
-      <c r="E196" s="12"/>
-      <c r="F196" s="12"/>
-      <c r="G196" s="12"/>
-      <c r="H196" s="20"/>
+      <c r="A196" s="15"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="11"/>
+      <c r="H196" s="18"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="16"/>
-      <c r="B197" s="23"/>
-      <c r="C197" s="23"/>
-      <c r="D197" s="12"/>
-      <c r="E197" s="12"/>
-      <c r="F197" s="12"/>
-      <c r="G197" s="12"/>
-      <c r="H197" s="20"/>
+      <c r="A197" s="15"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="11"/>
+      <c r="H197" s="18"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="16"/>
-      <c r="B198" s="23"/>
-      <c r="C198" s="23"/>
-      <c r="D198" s="12"/>
-      <c r="E198" s="12"/>
-      <c r="F198" s="12"/>
-      <c r="G198" s="12"/>
-      <c r="H198" s="20"/>
+      <c r="A198" s="15"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
+      <c r="H198" s="18"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="16"/>
-      <c r="B199" s="23"/>
-      <c r="C199" s="23"/>
-      <c r="D199" s="12"/>
-      <c r="E199" s="12"/>
-      <c r="F199" s="12"/>
-      <c r="G199" s="12"/>
-      <c r="H199" s="20"/>
+      <c r="A199" s="15"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
+      <c r="H199" s="18"/>
     </row>
     <row r="200" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="17"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="25"/>
-      <c r="D200" s="13"/>
-      <c r="E200" s="13"/>
-      <c r="F200" s="13"/>
-      <c r="G200" s="13"/>
-      <c r="H200" s="21"/>
+      <c r="A200" s="16"/>
+      <c r="B200" s="22"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E199 H2:H199">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E199 E2:E10 H2:H199">
       <formula1>"Lê Phước Việt, Nguyễn Xuân Sơn, Vũ Nhật Anh Khoa, Dương Thị Hoàng Anh"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F199">
@@ -2800,9 +2943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2839,32 +2980,32 @@
         <v>7</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>22</v>
+      <c r="B2" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7">
+        <v>18</v>
+      </c>
+      <c r="D2" s="23">
         <v>41798</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="20" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="7">
+        <v>16</v>
+      </c>
+      <c r="G2" s="23">
         <v>41798</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="25" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2876,7 +3017,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="8"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -2886,7 +3027,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -2896,7 +3037,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -2906,7 +3047,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -2916,7 +3057,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -2926,7 +3067,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -2936,7 +3077,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -2946,7 +3087,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -2956,7 +3097,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -2966,7 +3107,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
@@ -2976,7 +3117,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
@@ -2986,7 +3127,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
@@ -2996,7 +3137,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
@@ -3006,7 +3147,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
@@ -3016,7 +3157,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
@@ -3026,7 +3167,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -3036,7 +3177,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
@@ -3046,7 +3187,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
@@ -3056,7 +3197,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
@@ -3066,7 +3207,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
@@ -3076,7 +3217,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="8"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
@@ -3086,7 +3227,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="8"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
@@ -3096,7 +3237,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="8"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
@@ -3106,7 +3247,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
@@ -3116,7 +3257,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="8"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -3126,7 +3267,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="8"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -3136,7 +3277,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="8"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
@@ -3146,7 +3287,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="8"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -3156,7 +3297,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="8"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
@@ -3166,7 +3307,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="8"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
@@ -3176,7 +3317,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="8"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
@@ -3186,7 +3327,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="8"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
@@ -3196,7 +3337,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="8"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
@@ -3206,7 +3347,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="8"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
@@ -3216,7 +3357,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="8"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
@@ -3226,7 +3367,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="8"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
@@ -3236,7 +3377,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="8"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
@@ -3246,7 +3387,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="8"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
@@ -3256,7 +3397,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="8"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
@@ -3266,7 +3407,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="8"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
@@ -3276,7 +3417,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="8"/>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
@@ -3286,7 +3427,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="8"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
@@ -3296,7 +3437,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="8"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
@@ -3306,7 +3447,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="8"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -3316,7 +3457,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="8"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
@@ -3326,7 +3467,7 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
-      <c r="H48" s="8"/>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
@@ -3336,7 +3477,7 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
-      <c r="H49" s="8"/>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
@@ -3346,7 +3487,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
-      <c r="H50" s="8"/>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
@@ -3356,7 +3497,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="8"/>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
@@ -3366,7 +3507,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="8"/>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
@@ -3376,7 +3517,7 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
-      <c r="H53" s="8"/>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
@@ -3386,7 +3527,7 @@
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
-      <c r="H54" s="8"/>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
@@ -3396,7 +3537,7 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="8"/>
+      <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
@@ -3406,7 +3547,7 @@
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="8"/>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
@@ -3416,7 +3557,7 @@
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="8"/>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
@@ -3426,7 +3567,7 @@
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="8"/>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
@@ -3436,7 +3577,7 @@
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="8"/>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
@@ -3446,7 +3587,7 @@
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="8"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
@@ -3456,7 +3597,7 @@
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="8"/>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
@@ -3466,7 +3607,7 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="8"/>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
@@ -3476,7 +3617,7 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="8"/>
+      <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
@@ -3486,7 +3627,7 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="8"/>
+      <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
@@ -3496,7 +3637,7 @@
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="8"/>
+      <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
@@ -3506,7 +3647,7 @@
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="8"/>
+      <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
@@ -3516,7 +3657,7 @@
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="8"/>
+      <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
@@ -3526,7 +3667,7 @@
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="8"/>
+      <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
@@ -3536,7 +3677,7 @@
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="8"/>
+      <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
@@ -3546,7 +3687,7 @@
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="8"/>
+      <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
@@ -3556,7 +3697,7 @@
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="8"/>
+      <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
@@ -3566,7 +3707,7 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="8"/>
+      <c r="H72" s="7"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
@@ -3576,7 +3717,7 @@
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="8"/>
+      <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
@@ -3586,7 +3727,7 @@
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="8"/>
+      <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
@@ -3596,7 +3737,7 @@
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="8"/>
+      <c r="H75" s="7"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
@@ -3606,7 +3747,7 @@
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
-      <c r="H76" s="8"/>
+      <c r="H76" s="7"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
@@ -3616,7 +3757,7 @@
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="8"/>
+      <c r="H77" s="7"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
@@ -3626,7 +3767,7 @@
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="8"/>
+      <c r="H78" s="7"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
@@ -3636,7 +3777,7 @@
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
-      <c r="H79" s="8"/>
+      <c r="H79" s="7"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
@@ -3646,7 +3787,7 @@
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-      <c r="H80" s="8"/>
+      <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
@@ -3656,7 +3797,7 @@
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
-      <c r="H81" s="8"/>
+      <c r="H81" s="7"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
@@ -3666,7 +3807,7 @@
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
-      <c r="H82" s="8"/>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
@@ -3676,7 +3817,7 @@
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="8"/>
+      <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
@@ -3686,7 +3827,7 @@
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
-      <c r="H84" s="8"/>
+      <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
@@ -3696,7 +3837,7 @@
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="8"/>
+      <c r="H85" s="7"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
@@ -3706,7 +3847,7 @@
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="8"/>
+      <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
@@ -3716,7 +3857,7 @@
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
-      <c r="H87" s="8"/>
+      <c r="H87" s="7"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
@@ -3726,7 +3867,7 @@
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
-      <c r="H88" s="8"/>
+      <c r="H88" s="7"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
@@ -3736,7 +3877,7 @@
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
-      <c r="H89" s="8"/>
+      <c r="H89" s="7"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
@@ -3746,7 +3887,7 @@
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
-      <c r="H90" s="8"/>
+      <c r="H90" s="7"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
@@ -3756,7 +3897,7 @@
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
-      <c r="H91" s="8"/>
+      <c r="H91" s="7"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
@@ -3766,7 +3907,7 @@
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
-      <c r="H92" s="8"/>
+      <c r="H92" s="7"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
@@ -3776,7 +3917,7 @@
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
-      <c r="H93" s="8"/>
+      <c r="H93" s="7"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
@@ -3786,7 +3927,7 @@
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
-      <c r="H94" s="8"/>
+      <c r="H94" s="7"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
@@ -3796,7 +3937,7 @@
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
-      <c r="H95" s="8"/>
+      <c r="H95" s="7"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
@@ -3806,7 +3947,7 @@
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
-      <c r="H96" s="8"/>
+      <c r="H96" s="7"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
@@ -3816,7 +3957,7 @@
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
-      <c r="H97" s="8"/>
+      <c r="H97" s="7"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
@@ -3826,7 +3967,7 @@
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
-      <c r="H98" s="8"/>
+      <c r="H98" s="7"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
@@ -3836,7 +3977,7 @@
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
-      <c r="H99" s="8"/>
+      <c r="H99" s="7"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
@@ -3846,7 +3987,7 @@
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
-      <c r="H100" s="8"/>
+      <c r="H100" s="7"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
@@ -3856,7 +3997,7 @@
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
-      <c r="H101" s="8"/>
+      <c r="H101" s="7"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
@@ -3866,7 +4007,7 @@
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
-      <c r="H102" s="8"/>
+      <c r="H102" s="7"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
@@ -3876,7 +4017,7 @@
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
-      <c r="H103" s="8"/>
+      <c r="H103" s="7"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
@@ -3886,7 +4027,7 @@
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
-      <c r="H104" s="8"/>
+      <c r="H104" s="7"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
@@ -3896,7 +4037,7 @@
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
-      <c r="H105" s="8"/>
+      <c r="H105" s="7"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
@@ -3906,7 +4047,7 @@
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
-      <c r="H106" s="8"/>
+      <c r="H106" s="7"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
@@ -3916,7 +4057,7 @@
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
-      <c r="H107" s="8"/>
+      <c r="H107" s="7"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
@@ -3926,7 +4067,7 @@
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
-      <c r="H108" s="8"/>
+      <c r="H108" s="7"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
@@ -3936,7 +4077,7 @@
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
-      <c r="H109" s="8"/>
+      <c r="H109" s="7"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
@@ -3946,7 +4087,7 @@
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
-      <c r="H110" s="8"/>
+      <c r="H110" s="7"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
@@ -3956,7 +4097,7 @@
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
-      <c r="H111" s="8"/>
+      <c r="H111" s="7"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
@@ -3966,7 +4107,7 @@
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
-      <c r="H112" s="8"/>
+      <c r="H112" s="7"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
@@ -3976,7 +4117,7 @@
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
-      <c r="H113" s="8"/>
+      <c r="H113" s="7"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
@@ -3986,7 +4127,7 @@
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
-      <c r="H114" s="8"/>
+      <c r="H114" s="7"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
@@ -3996,7 +4137,7 @@
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
-      <c r="H115" s="8"/>
+      <c r="H115" s="7"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
@@ -4006,7 +4147,7 @@
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
-      <c r="H116" s="8"/>
+      <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
@@ -4016,7 +4157,7 @@
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
-      <c r="H117" s="8"/>
+      <c r="H117" s="7"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
@@ -4026,7 +4167,7 @@
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
-      <c r="H118" s="8"/>
+      <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
@@ -4036,7 +4177,7 @@
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
-      <c r="H119" s="8"/>
+      <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
@@ -4046,7 +4187,7 @@
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
-      <c r="H120" s="8"/>
+      <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
@@ -4056,7 +4197,7 @@
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
-      <c r="H121" s="8"/>
+      <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
@@ -4066,7 +4207,7 @@
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
-      <c r="H122" s="8"/>
+      <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
@@ -4076,7 +4217,7 @@
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
-      <c r="H123" s="8"/>
+      <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
@@ -4086,7 +4227,7 @@
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
-      <c r="H124" s="8"/>
+      <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
@@ -4096,7 +4237,7 @@
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
-      <c r="H125" s="8"/>
+      <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
@@ -4106,7 +4247,7 @@
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
-      <c r="H126" s="8"/>
+      <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
@@ -4116,7 +4257,7 @@
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
-      <c r="H127" s="8"/>
+      <c r="H127" s="7"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
@@ -4126,7 +4267,7 @@
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
-      <c r="H128" s="8"/>
+      <c r="H128" s="7"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
@@ -4136,7 +4277,7 @@
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
-      <c r="H129" s="8"/>
+      <c r="H129" s="7"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
@@ -4146,7 +4287,7 @@
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
-      <c r="H130" s="8"/>
+      <c r="H130" s="7"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
@@ -4156,7 +4297,7 @@
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
-      <c r="H131" s="8"/>
+      <c r="H131" s="7"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
@@ -4166,7 +4307,7 @@
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
-      <c r="H132" s="8"/>
+      <c r="H132" s="7"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
@@ -4176,7 +4317,7 @@
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
-      <c r="H133" s="8"/>
+      <c r="H133" s="7"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
@@ -4186,7 +4327,7 @@
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
-      <c r="H134" s="8"/>
+      <c r="H134" s="7"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
@@ -4196,7 +4337,7 @@
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
-      <c r="H135" s="8"/>
+      <c r="H135" s="7"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
@@ -4206,7 +4347,7 @@
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
-      <c r="H136" s="8"/>
+      <c r="H136" s="7"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
@@ -4216,7 +4357,7 @@
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
-      <c r="H137" s="8"/>
+      <c r="H137" s="7"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
@@ -4226,7 +4367,7 @@
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
-      <c r="H138" s="8"/>
+      <c r="H138" s="7"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
@@ -4236,7 +4377,7 @@
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
-      <c r="H139" s="8"/>
+      <c r="H139" s="7"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
@@ -4246,7 +4387,7 @@
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
-      <c r="H140" s="8"/>
+      <c r="H140" s="7"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
@@ -4256,7 +4397,7 @@
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
-      <c r="H141" s="8"/>
+      <c r="H141" s="7"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
@@ -4266,7 +4407,7 @@
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
-      <c r="H142" s="8"/>
+      <c r="H142" s="7"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
@@ -4276,7 +4417,7 @@
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
-      <c r="H143" s="8"/>
+      <c r="H143" s="7"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
@@ -4286,7 +4427,7 @@
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
-      <c r="H144" s="8"/>
+      <c r="H144" s="7"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
@@ -4296,7 +4437,7 @@
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
-      <c r="H145" s="8"/>
+      <c r="H145" s="7"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
@@ -4306,7 +4447,7 @@
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
-      <c r="H146" s="8"/>
+      <c r="H146" s="7"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
@@ -4316,7 +4457,7 @@
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
-      <c r="H147" s="8"/>
+      <c r="H147" s="7"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
@@ -4326,7 +4467,7 @@
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
-      <c r="H148" s="8"/>
+      <c r="H148" s="7"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
@@ -4336,7 +4477,7 @@
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
-      <c r="H149" s="8"/>
+      <c r="H149" s="7"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
@@ -4346,7 +4487,7 @@
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
-      <c r="H150" s="8"/>
+      <c r="H150" s="7"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
@@ -4356,7 +4497,7 @@
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
-      <c r="H151" s="8"/>
+      <c r="H151" s="7"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
@@ -4366,7 +4507,7 @@
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
-      <c r="H152" s="8"/>
+      <c r="H152" s="7"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
@@ -4376,7 +4517,7 @@
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
-      <c r="H153" s="8"/>
+      <c r="H153" s="7"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
@@ -4386,7 +4527,7 @@
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
-      <c r="H154" s="8"/>
+      <c r="H154" s="7"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
@@ -4396,7 +4537,7 @@
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
-      <c r="H155" s="8"/>
+      <c r="H155" s="7"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
@@ -4406,7 +4547,7 @@
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
-      <c r="H156" s="8"/>
+      <c r="H156" s="7"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
@@ -4416,7 +4557,7 @@
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
-      <c r="H157" s="8"/>
+      <c r="H157" s="7"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
@@ -4426,7 +4567,7 @@
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
-      <c r="H158" s="8"/>
+      <c r="H158" s="7"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
@@ -4436,7 +4577,7 @@
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
-      <c r="H159" s="8"/>
+      <c r="H159" s="7"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
@@ -4446,7 +4587,7 @@
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
-      <c r="H160" s="8"/>
+      <c r="H160" s="7"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
@@ -4456,7 +4597,7 @@
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
-      <c r="H161" s="8"/>
+      <c r="H161" s="7"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
@@ -4466,7 +4607,7 @@
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
-      <c r="H162" s="8"/>
+      <c r="H162" s="7"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
@@ -4476,7 +4617,7 @@
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
-      <c r="H163" s="8"/>
+      <c r="H163" s="7"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
@@ -4486,7 +4627,7 @@
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
-      <c r="H164" s="8"/>
+      <c r="H164" s="7"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
@@ -4496,7 +4637,7 @@
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
-      <c r="H165" s="8"/>
+      <c r="H165" s="7"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
@@ -4506,7 +4647,7 @@
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
-      <c r="H166" s="8"/>
+      <c r="H166" s="7"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
@@ -4516,7 +4657,7 @@
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
-      <c r="H167" s="8"/>
+      <c r="H167" s="7"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
@@ -4526,7 +4667,7 @@
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
-      <c r="H168" s="8"/>
+      <c r="H168" s="7"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
@@ -4536,7 +4677,7 @@
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
-      <c r="H169" s="8"/>
+      <c r="H169" s="7"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
@@ -4546,7 +4687,7 @@
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
-      <c r="H170" s="8"/>
+      <c r="H170" s="7"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
@@ -4556,7 +4697,7 @@
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
-      <c r="H171" s="8"/>
+      <c r="H171" s="7"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
@@ -4566,7 +4707,7 @@
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
-      <c r="H172" s="8"/>
+      <c r="H172" s="7"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
@@ -4576,7 +4717,7 @@
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
-      <c r="H173" s="8"/>
+      <c r="H173" s="7"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
@@ -4586,7 +4727,7 @@
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
-      <c r="H174" s="8"/>
+      <c r="H174" s="7"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
@@ -4596,7 +4737,7 @@
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
-      <c r="H175" s="8"/>
+      <c r="H175" s="7"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
@@ -4606,7 +4747,7 @@
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
-      <c r="H176" s="8"/>
+      <c r="H176" s="7"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
@@ -4616,7 +4757,7 @@
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
-      <c r="H177" s="8"/>
+      <c r="H177" s="7"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
@@ -4626,7 +4767,7 @@
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
-      <c r="H178" s="8"/>
+      <c r="H178" s="7"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
@@ -4636,7 +4777,7 @@
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
-      <c r="H179" s="8"/>
+      <c r="H179" s="7"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
@@ -4646,7 +4787,7 @@
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
-      <c r="H180" s="8"/>
+      <c r="H180" s="7"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
@@ -4656,7 +4797,7 @@
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
-      <c r="H181" s="8"/>
+      <c r="H181" s="7"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
@@ -4666,7 +4807,7 @@
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
-      <c r="H182" s="8"/>
+      <c r="H182" s="7"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
@@ -4676,7 +4817,7 @@
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
-      <c r="H183" s="8"/>
+      <c r="H183" s="7"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
@@ -4686,7 +4827,7 @@
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
-      <c r="H184" s="8"/>
+      <c r="H184" s="7"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
@@ -4696,7 +4837,7 @@
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
-      <c r="H185" s="8"/>
+      <c r="H185" s="7"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
@@ -4706,7 +4847,7 @@
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
-      <c r="H186" s="8"/>
+      <c r="H186" s="7"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
@@ -4716,7 +4857,7 @@
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
-      <c r="H187" s="8"/>
+      <c r="H187" s="7"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="5"/>
@@ -4726,7 +4867,7 @@
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
-      <c r="H188" s="8"/>
+      <c r="H188" s="7"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="5"/>
@@ -4736,7 +4877,7 @@
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
-      <c r="H189" s="8"/>
+      <c r="H189" s="7"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="5"/>
@@ -4746,7 +4887,7 @@
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
-      <c r="H190" s="8"/>
+      <c r="H190" s="7"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="5"/>
@@ -4756,7 +4897,7 @@
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
-      <c r="H191" s="8"/>
+      <c r="H191" s="7"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="5"/>
@@ -4766,7 +4907,7 @@
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
-      <c r="H192" s="8"/>
+      <c r="H192" s="7"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="5"/>
@@ -4776,7 +4917,7 @@
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
-      <c r="H193" s="8"/>
+      <c r="H193" s="7"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="5"/>
@@ -4786,7 +4927,7 @@
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
-      <c r="H194" s="8"/>
+      <c r="H194" s="7"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
@@ -4796,7 +4937,7 @@
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
-      <c r="H195" s="8"/>
+      <c r="H195" s="7"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="5"/>
@@ -4806,7 +4947,7 @@
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
-      <c r="H196" s="8"/>
+      <c r="H196" s="7"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="5"/>
@@ -4816,7 +4957,7 @@
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
-      <c r="H197" s="8"/>
+      <c r="H197" s="7"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="5"/>
@@ -4826,7 +4967,7 @@
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
-      <c r="H198" s="8"/>
+      <c r="H198" s="7"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
@@ -4836,17 +4977,17 @@
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
-      <c r="H199" s="8"/>
+      <c r="H199" s="7"/>
     </row>
     <row r="200" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="9"/>
-      <c r="B200" s="10"/>
-      <c r="C200" s="10"/>
-      <c r="D200" s="10"/>
-      <c r="E200" s="10"/>
-      <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
-      <c r="H200" s="11"/>
+      <c r="A200" s="8"/>
+      <c r="B200" s="9"/>
+      <c r="C200" s="9"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/Design/Usecase Diagram/Review/Review Log v1.0.xlsx
+++ b/Design/Usecase Diagram/Review/Review Log v1.0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>No.</t>
   </si>
@@ -138,8 +138,35 @@
     <t>1. Không hiểu phần đặc tả của Trigger, hãy Update lại.
 2. Cân nhắc về những Field read only, nếu chỉ cho cập nhật thông tin giờ làm việc của bác sỹ thì có chính đáng hay không.
 3. Nếu có thay đổi những Field read only thì phải cập nhật lại Exception case tương ứng với với use case Add Doctor
-4. Alternative screnario có 2 dòng trùng lắp
-5.  Sửa lỗi chính tả, diễn đạt và định dạng</t>
+4. Không hiểu rõ Action của Step 2 và Step 4 trong Main Scenario
+5. Alternative screnario có 2 dòng trùng lắp
+6.  Sửa lỗi chính tả, diễn đạt và định dạng</t>
+  </si>
+  <si>
+    <t>&lt;HU&gt;&lt;AD&gt; Update hospital information</t>
+  </si>
+  <si>
+    <t>1. Trigger nên ghi rõ là click vào button hoặc link gì, hoặc có hành dộng nào trước đó trong những Page khác để kích hoạt chức năng này
+2. Mới chỉ miêu tả flow chạy chính của Admin. Flow chạy của Hospital user vẫn chưa được thể hiện
+3. Alternative Scenario là một cách khác để thực hiện case này, chứ không phải trong case này có những chức năng optinal nào. Trong trường hợp cụ thể ở đây thì nên để flow chạy của Hospital user
+4. Các field trong phần Giới thiệu chung chưa được phân loại kiểu giao diện (Textbox, lable,...). Các list nên ghi rõ là dạng Table hay Drop down list
+5. Việc Update thông tin của bệnh viện sẽ có nhiều Field cần Update, nhưng không thấy phần đặc tả cho Exception và Error message.
+6. Sửa lỗi chính tả, diễn đạt và định dạng</t>
+  </si>
+  <si>
+    <t>&lt;HU&gt; Update account information</t>
+  </si>
+  <si>
+    <t>&lt;HU&gt; General use case v1.1</t>
+  </si>
+  <si>
+    <t>1. Chưa có case Change password và Reclaim forgotten password</t>
+  </si>
+  <si>
+    <t>1. Tách thành 2 case:
+&lt;HU&gt; Change Password
+&lt;HU&gt; Reclaim forgotten password
+2. Sửa lại use case diagram. Cho Change Password và Reclaim forgotten password kế thừa Update account information</t>
   </si>
 </sst>
 </file>
@@ -725,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,14 +1039,12 @@
       <c r="F11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="23">
-        <v>41798</v>
-      </c>
+      <c r="G11" s="23"/>
       <c r="H11" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1038,42 +1063,84 @@
       <c r="F12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="23">
-        <v>41798</v>
-      </c>
+      <c r="G12" s="23"/>
       <c r="H12" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="18"/>
+    <row r="13" spans="1:8" ht="360" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="23">
+        <v>41798</v>
+      </c>
+      <c r="E13" s="23">
+        <v>41798</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="23">
+        <v>41798</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="23">
+        <v>41798</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="23">
+        <v>41798</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="25" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
@@ -2927,7 +2994,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E199 E2:E10 H2:H199">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 H2:H199 E14:E199">
       <formula1>"Lê Phước Việt, Nguyễn Xuân Sơn, Vũ Nhật Anh Khoa, Dương Thị Hoàng Anh"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F199">

--- a/Design/Usecase Diagram/Review/Review Log v1.0.xlsx
+++ b/Design/Usecase Diagram/Review/Review Log v1.0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t>No.</t>
   </si>
@@ -58,11 +58,6 @@
   </si>
   <si>
     <t>Administrator General Usercase v1.1</t>
-  </si>
-  <si>
-    <t>&lt;AD&gt; View Feedback
-&lt;AD&gt; View System Statistics
-&lt;AD&gt; Import Hospital using Excel</t>
   </si>
   <si>
     <t>&lt;AD&gt; Create hospital user’s account</t>
@@ -109,9 +104,6 @@
   </si>
   <si>
     <t>&lt;AD&gt; De-ativate User</t>
-  </si>
-  <si>
-    <t>1. Chưa có đặc tả của những Case này</t>
   </si>
   <si>
     <t>1. Bỏ những Case liên quan đến Insert và Update Doctor.</t>
@@ -167,6 +159,34 @@
 &lt;HU&gt; Change Password
 &lt;HU&gt; Reclaim forgotten password
 2. Sửa lại use case diagram. Cho Change Password và Reclaim forgotten password kế thừa Update account information</t>
+  </si>
+  <si>
+    <t>&lt;HU&gt; Change password</t>
+  </si>
+  <si>
+    <t>1. Sửa lỗi chính tả, diễn đạt và định dạng
+2. Sửa error message trong phần Exception</t>
+  </si>
+  <si>
+    <t>&lt;US&gt; Comment</t>
+  </si>
+  <si>
+    <t>1. Sửa lỗi chính tả, diện đạt và định dạng
+2. Add exception error message</t>
+  </si>
+  <si>
+    <t>&lt;US&gt; Reply comment</t>
+  </si>
+  <si>
+    <t>1. Sửa lỗi chính tả, diện đạt và định dạng
+2. Update alternive screnario
+3. Add exception error message</t>
+  </si>
+  <si>
+    <t>&lt;GU&gt; Search doctor</t>
+  </si>
+  <si>
+    <t>&lt;GU&gt; Make appointment online</t>
   </si>
 </sst>
 </file>
@@ -750,11 +770,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -802,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="23">
         <v>41798</v>
@@ -826,7 +844,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="23">
         <v>41798</v>
@@ -842,7 +860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -850,7 +868,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="23">
         <v>41798</v>
@@ -866,7 +884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -874,7 +892,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5" s="23">
         <v>41798</v>
@@ -882,23 +900,25 @@
       <c r="E5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="20"/>
+      <c r="F5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="23">
+        <v>41798</v>
+      </c>
       <c r="H5" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="23">
         <v>41798</v>
@@ -906,8 +926,8 @@
       <c r="E6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>16</v>
+      <c r="F6" s="27" t="s">
+        <v>15</v>
       </c>
       <c r="G6" s="23">
         <v>41798</v>
@@ -916,15 +936,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>21</v>
       </c>
       <c r="D7" s="23">
         <v>41798</v>
@@ -933,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="23">
         <v>41798</v>
@@ -950,7 +970,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="23">
         <v>41798</v>
@@ -959,7 +979,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="23">
         <v>41798</v>
@@ -968,15 +988,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D9" s="23">
         <v>41798</v>
@@ -985,7 +1005,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="23">
         <v>41798</v>
@@ -994,41 +1014,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="23">
         <v>41798</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="23">
+      <c r="E10" s="23">
         <v>41798</v>
       </c>
+      <c r="F10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="23"/>
       <c r="H10" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="D11" s="23">
         <v>41798</v>
@@ -1044,7 +1062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1063,46 +1081,46 @@
       <c r="F12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="23"/>
+      <c r="G12" s="23">
+        <v>41798</v>
+      </c>
       <c r="H12" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="360" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>36</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="D13" s="23">
         <v>41798</v>
       </c>
-      <c r="E13" s="23">
-        <v>41798</v>
+      <c r="E13" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="23">
-        <v>41798</v>
-      </c>
+      <c r="G13" s="23"/>
       <c r="H13" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="D14" s="23">
         <v>41798</v>
@@ -1118,12 +1136,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>40</v>
@@ -1134,47 +1152,101 @@
       <c r="E15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="23"/>
+      <c r="F15" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="23">
+        <v>41798</v>
+      </c>
       <c r="H15" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="23">
+        <v>41798</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="23">
+        <v>41798</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="23">
+        <v>41798</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="23">
+        <v>41798</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="23">
+        <v>41798</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="23">
+        <v>41798</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C19" s="20"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -2972,32 +3044,22 @@
       <c r="G198" s="11"/>
       <c r="H198" s="18"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="15"/>
-      <c r="B199" s="20"/>
-      <c r="C199" s="20"/>
-      <c r="D199" s="11"/>
-      <c r="E199" s="11"/>
-      <c r="F199" s="11"/>
-      <c r="G199" s="11"/>
-      <c r="H199" s="18"/>
-    </row>
-    <row r="200" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="16"/>
-      <c r="B200" s="22"/>
-      <c r="C200" s="22"/>
-      <c r="D200" s="12"/>
-      <c r="E200" s="12"/>
-      <c r="F200" s="12"/>
-      <c r="G200" s="12"/>
-      <c r="H200" s="19"/>
+    <row r="199" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="16"/>
+      <c r="B199" s="22"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="19"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 H2:H199 E14:E199">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E198 H2:H198 E2:E9">
       <formula1>"Lê Phước Việt, Nguyễn Xuân Sơn, Vũ Nhật Anh Khoa, Dương Thị Hoàng Anh"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F199">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F198">
       <formula1>"Assigned, Canceled, In Progress, Finished"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3055,10 +3117,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="23">
         <v>41798</v>
@@ -3067,7 +3129,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="23">
         <v>41798</v>

--- a/Design/Usecase Diagram/Review/Review Log v1.0.xlsx
+++ b/Design/Usecase Diagram/Review/Review Log v1.0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
   <si>
     <t>No.</t>
   </si>
@@ -171,10 +171,6 @@
     <t>&lt;US&gt; Comment</t>
   </si>
   <si>
-    <t>1. Sửa lỗi chính tả, diện đạt và định dạng
-2. Add exception error message</t>
-  </si>
-  <si>
     <t>&lt;US&gt; Reply comment</t>
   </si>
   <si>
@@ -187,6 +183,18 @@
   </si>
   <si>
     <t>&lt;GU&gt; Make appointment online</t>
+  </si>
+  <si>
+    <t>1. Sửa lỗi chính tả, diễn đạt và định dạng
+2. Add exception error message</t>
+  </si>
+  <si>
+    <t>1. Sửa lỗi chính tả, diễn đạt và định dạng
+2. Cân nhắc việc bỏ Checkbox đặt lịch khám cho bản thân hoặc người thân
+3. Cân nhắc lại ở Post Condition là lịch hẹn được đưa trực tiếp vào Google Calendar hay phải xác nhận bằng tin nhắn sau đó mới đưa vào Calendar
+4. Sửa giao diện Field Năm sinh thành Ngày sinh và type giao diện thành Datetime picker
+5. Nên tìm regular expression cho Phone number
+6. Ngày hẹn và giờ hẹn là Required nhưng chưa định nghĩa error message trong phần Exception</t>
   </si>
 </sst>
 </file>
@@ -772,7 +780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1170,7 +1180,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D16" s="23">
         <v>41798</v>
@@ -1193,10 +1203,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D17" s="23">
         <v>41798</v>
@@ -1219,10 +1229,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="23">
         <v>41798</v>
@@ -1240,19 +1250,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="23">
+        <v>41799</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="23">
+        <v>41799</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
@@ -3055,7 +3077,7 @@
       <c r="H199" s="19"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E198 H2:H198 E2:E9">
       <formula1>"Lê Phước Việt, Nguyễn Xuân Sơn, Vũ Nhật Anh Khoa, Dương Thị Hoàng Anh"</formula1>
     </dataValidation>

--- a/Design/Usecase Diagram/Review/Review Log v1.0.xlsx
+++ b/Design/Usecase Diagram/Review/Review Log v1.0.xlsx
@@ -69,11 +69,6 @@
     <t>&lt;GU&gt; Login</t>
   </si>
   <si>
-    <t>1. Sửa lỗi chính tả, diễn đạt và định dạng.
-2. Sửa lại Post condition
-3. Không có Username trong Login mà chỉ có Email</t>
-  </si>
-  <si>
     <t>&lt;HU&gt;&lt;AD&gt; Upload Photo</t>
   </si>
   <si>
@@ -88,11 +83,6 @@
 2. Thêm Facility vào phần thêm mới bệnh viện cùng với Service.
 3. Sửa lại Altenative scenario
 4. Thêm Business rules</t>
-  </si>
-  <si>
-    <t>1. Case view hospital / clinic information ở Guest không có Extend, nhưng ở User lại có Extend. Hãy thống nhất trường hợp này trong cả 2 Diagrams.
-2. Bổ sung thêm Case Cancel Appointment Online cho Guest General Use Case.
-3. Bổ sung thêm Case Make Appointment và Cancel Appointment Online cho User General Use Case.</t>
   </si>
   <si>
     <t>1. User cũng có thể đặt Appointment Online. Vẽ thêm một Association từ User vào Make Appoint Online hoặc cho User kế thừa Guest.
@@ -193,8 +183,22 @@
 2. Cân nhắc việc bỏ Checkbox đặt lịch khám cho bản thân hoặc người thân
 3. Cân nhắc lại ở Post Condition là lịch hẹn được đưa trực tiếp vào Google Calendar hay phải xác nhận bằng tin nhắn sau đó mới đưa vào Calendar
 4. Sửa giao diện Field Năm sinh thành Ngày sinh và type giao diện thành Datetime picker
-5. Nên tìm regular expression cho Phone number
-6. Ngày hẹn và giờ hẹn là Required nhưng chưa định nghĩa error message trong phần Exception</t>
+5. Số điện thoại có error message báo regular expression sai nhưng không thấy định nghĩa regular expression cho số điện thoại
+6. Ngày hẹn và giờ hẹn là Required nhưng chưa định nghĩa error message trong phần Exception
+7. Nên suy nghĩ đến việc chọn giờ hẹn như thế nào để hợp lý và không bị Conflict với những giờ hẹn khác của một bác sỹ</t>
+  </si>
+  <si>
+    <t>1. Sửa lỗi chính tả, diễn đạt và định dạng.
+2. Sửa lại Pre  condition vì không chắc chắn rằng sẽ có trang web với tên www.timkiembenhvien.vn
+3. Sửa lại Post condition
+4. Không có Username trong Login mà chỉ có Email
+5. Email trong form đăng nhập của Facebook không cần phải miêu tả Regular expression</t>
+  </si>
+  <si>
+    <t>1. Case view hospital / clinic information ở Guest không có Extend, nhưng ở User lại có Extend. Hãy thống nhất trường hợp này trong cả 2 Diagrams.
+2. Bổ sung thêm Case Cancel Appointment Online cho Guest General Use Case.
+3. Bổ sung thêm Case Make Appointment và Cancel Appointment Online cho User General Use Case.
+4. Bổ sung thêm Case View Appointment</t>
   </si>
 </sst>
 </file>
@@ -391,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -472,6 +476,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -780,9 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -830,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="23">
         <v>41798</v>
@@ -846,7 +851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -854,7 +859,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D3" s="23">
         <v>41798</v>
@@ -878,7 +883,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="23">
         <v>41798</v>
@@ -902,7 +907,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="23">
         <v>41798</v>
@@ -925,10 +930,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="23">
         <v>41798</v>
@@ -951,10 +956,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="23">
         <v>41798</v>
@@ -977,10 +982,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="23">
         <v>41798</v>
@@ -1003,10 +1008,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="23">
         <v>41798</v>
@@ -1029,10 +1034,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="23">
         <v>41798</v>
@@ -1053,10 +1058,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="23">
         <v>41798</v>
@@ -1077,10 +1082,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="23">
         <v>41798</v>
@@ -1103,10 +1108,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="23">
         <v>41798</v>
@@ -1127,10 +1132,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="23">
         <v>41798</v>
@@ -1151,10 +1156,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="23">
         <v>41798</v>
@@ -1177,10 +1182,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="23">
         <v>41798</v>
@@ -1203,10 +1208,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="23">
         <v>41798</v>
@@ -1229,10 +1234,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="23">
         <v>41798</v>
@@ -1250,15 +1255,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>47</v>
       </c>
       <c r="D19" s="23">
         <v>41799</v>
@@ -3094,7 +3099,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3134,7 +3141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -3142,19 +3149,19 @@
         <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D2" s="23">
-        <v>41798</v>
+        <v>41799</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>15</v>
+      <c r="F2" s="28" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="23">
-        <v>41798</v>
+        <v>41799</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>9</v>
@@ -5141,12 +5148,15 @@
       <c r="H200" s="10"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F199">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F199">
       <formula1>"Assign, Cancel, In progress, Finished"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E199 H2:H199">
       <formula1>"Lê Phước Việt, Nguyễn Xuân Sơn, Vũ Nhật Anh Khoa, Dương Thị Hoàng Anh"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>"Assigned, Canceled, In progress, Finished"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/Usecase Diagram/Review/Review Log v1.0.xlsx
+++ b/Design/Usecase Diagram/Review/Review Log v1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -541,7 +541,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,7 +576,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -787,7 +787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -844,9 +846,11 @@
         <v>9</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="G2" s="23">
+        <v>41806</v>
+      </c>
       <c r="H2" s="25" t="s">
         <v>6</v>
       </c>
@@ -868,9 +872,11 @@
         <v>9</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="G3" s="23">
+        <v>41806</v>
+      </c>
       <c r="H3" s="25" t="s">
         <v>6</v>
       </c>
@@ -892,9 +898,11 @@
         <v>9</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="G4" s="23">
+        <v>41806</v>
+      </c>
       <c r="H4" s="25" t="s">
         <v>6</v>
       </c>
@@ -1046,9 +1054,11 @@
         <v>41798</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="G10" s="23">
+        <v>41806</v>
+      </c>
       <c r="H10" s="25" t="s">
         <v>6</v>
       </c>
@@ -1070,9 +1080,11 @@
         <v>41798</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="G11" s="23">
+        <v>41806</v>
+      </c>
       <c r="H11" s="25" t="s">
         <v>6</v>
       </c>
@@ -1094,7 +1106,7 @@
         <v>41798</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G12" s="23">
         <v>41798</v>
@@ -1120,9 +1132,11 @@
         <v>9</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="G13" s="23">
+        <v>41806</v>
+      </c>
       <c r="H13" s="25" t="s">
         <v>6</v>
       </c>
@@ -1144,9 +1158,11 @@
         <v>9</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="G14" s="23">
+        <v>41806</v>
+      </c>
       <c r="H14" s="25" t="s">
         <v>6</v>
       </c>
@@ -1272,10 +1288,10 @@
         <v>9</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G19" s="23">
-        <v>41799</v>
+        <v>41806</v>
       </c>
       <c r="H19" s="25" t="s">
         <v>6</v>
